--- a/Thresholding/Context-Specific model/Final_results.xlsx
+++ b/Thresholding/Context-Specific model/Final_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9498043962a09e1f/Documentos/Systems_Biology_master/Internship/Internship/Thresholding/Context-Specific model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="11_F25DC773A252ABDACC10483B5918531C5BDE58E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFE0718-2C05-4564-A5B8-01D31C8BD3A0}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="11_F25DC773A252ABDACC10483B5918531C5BDE58E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77A87DCA-AF21-459A-B489-DFB1405FCADB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>FASTCORE_G_IMR90_Y1</t>
   </si>
@@ -169,12 +169,21 @@
   </si>
   <si>
     <t>FASTCORE_IMR90_O3_SD</t>
+  </si>
+  <si>
+    <t>model_p_genes</t>
+  </si>
+  <si>
+    <t>model_p_react</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,8 +219,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,9 +534,10 @@
     <col min="19" max="19" width="26.36328125" customWidth="1"/>
     <col min="20" max="20" width="21.26953125" customWidth="1"/>
     <col min="21" max="21" width="27.7265625" customWidth="1"/>
+    <col min="25" max="25" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -547,44 +562,8 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -597,59 +576,26 @@
       <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="E2">
-        <v>25.88</v>
+      <c r="E2" s="1">
+        <f>(D2)*($M$8/B2)</f>
+        <v>1.1259336099585062</v>
       </c>
       <c r="F2">
         <v>0.81</v>
       </c>
-      <c r="G2">
-        <v>33.61</v>
+      <c r="G2" s="1">
+        <f>(F2)*($M$9/C2)</f>
+        <v>1.7856401057401814</v>
       </c>
       <c r="H2">
         <v>0.84</v>
       </c>
-      <c r="I2">
-        <v>29.06</v>
-      </c>
-      <c r="J2">
-        <v>0.93</v>
-      </c>
-      <c r="K2">
-        <v>13.12</v>
-      </c>
-      <c r="L2">
-        <v>0.88</v>
-      </c>
-      <c r="M2">
-        <v>21.73</v>
-      </c>
-      <c r="N2">
-        <v>0.92</v>
-      </c>
-      <c r="O2">
-        <v>17.07</v>
-      </c>
-      <c r="P2">
-        <v>0.89</v>
-      </c>
-      <c r="Q2">
-        <v>27.28</v>
-      </c>
-      <c r="R2">
-        <v>0.69</v>
-      </c>
-      <c r="S2">
-        <v>36.01</v>
-      </c>
-      <c r="T2">
-        <v>0.72</v>
-      </c>
-      <c r="U2">
-        <v>30.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <f>(H2)*($M$9/C2)</f>
+        <v>1.8517749244712991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -662,59 +608,26 @@
       <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="E3">
-        <v>25.9</v>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E25" si="0">(D3)*($M$8/B3)</f>
+        <v>1.1312141740489838</v>
       </c>
       <c r="F3">
         <v>0.82</v>
       </c>
-      <c r="G3">
-        <v>33.61</v>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G25" si="1">(F3)*($M$9/C3)</f>
+        <v>1.7995300751879699</v>
       </c>
       <c r="H3">
         <v>0.84</v>
       </c>
-      <c r="I3">
-        <v>29.06</v>
-      </c>
-      <c r="J3">
-        <v>0.93</v>
-      </c>
-      <c r="K3">
-        <v>13.18</v>
-      </c>
-      <c r="L3">
-        <v>0.88</v>
-      </c>
-      <c r="M3">
-        <v>21.64</v>
-      </c>
-      <c r="N3">
-        <v>0.92</v>
-      </c>
-      <c r="O3">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="P3">
-        <v>0.89</v>
-      </c>
-      <c r="Q3">
-        <v>27.36</v>
-      </c>
-      <c r="R3">
-        <v>0.69</v>
-      </c>
-      <c r="S3">
-        <v>35.9</v>
-      </c>
-      <c r="T3">
-        <v>0.72</v>
-      </c>
-      <c r="U3">
-        <v>30.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I25" si="2">(H3)*($M$9/C3)</f>
+        <v>1.8434210526315788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -727,59 +640,26 @@
       <c r="D4">
         <v>0.89</v>
       </c>
-      <c r="E4">
-        <v>25.93</v>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1221536853110299</v>
       </c>
       <c r="F4">
         <v>0.81</v>
       </c>
-      <c r="G4">
-        <v>33.479999999999997</v>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7826107445805845</v>
       </c>
       <c r="H4">
         <v>0.84</v>
       </c>
-      <c r="I4">
-        <v>28.93</v>
-      </c>
-      <c r="J4">
-        <v>0.93</v>
-      </c>
-      <c r="K4">
-        <v>13.23</v>
-      </c>
-      <c r="L4">
-        <v>0.88</v>
-      </c>
-      <c r="M4">
-        <v>21.72</v>
-      </c>
-      <c r="N4">
-        <v>0.92</v>
-      </c>
-      <c r="O4">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="P4">
-        <v>0.89</v>
-      </c>
-      <c r="Q4">
-        <v>27.39</v>
-      </c>
-      <c r="R4">
-        <v>0.69</v>
-      </c>
-      <c r="S4">
-        <v>36.08</v>
-      </c>
-      <c r="T4">
-        <v>0.72</v>
-      </c>
-      <c r="U4">
-        <v>30.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8486333647502358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -792,59 +672,26 @@
       <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="E5">
-        <v>26.18</v>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1365445026178012</v>
       </c>
       <c r="F5">
         <v>0.8</v>
       </c>
-      <c r="G5">
-        <v>33.74</v>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7903009392371094</v>
       </c>
       <c r="H5">
         <v>0.83</v>
       </c>
-      <c r="I5">
-        <v>29.15</v>
-      </c>
-      <c r="J5">
-        <v>0.94</v>
-      </c>
-      <c r="K5">
-        <v>13.3</v>
-      </c>
-      <c r="L5">
-        <v>0.88</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>0.92</v>
-      </c>
-      <c r="O5">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.89</v>
-      </c>
-      <c r="Q5">
-        <v>27.54</v>
-      </c>
-      <c r="R5">
-        <v>0.68</v>
-      </c>
-      <c r="S5">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="T5">
-        <v>0.71</v>
-      </c>
-      <c r="U5">
-        <v>31.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8574372244585009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -857,59 +704,26 @@
       <c r="D6">
         <v>0.91</v>
       </c>
-      <c r="E6">
-        <v>25.51</v>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1130425963488846</v>
       </c>
       <c r="F6">
         <v>0.81</v>
       </c>
-      <c r="G6">
-        <v>31.87</v>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7026917536910338</v>
       </c>
       <c r="H6">
         <v>0.84</v>
       </c>
-      <c r="I6">
-        <v>27.69</v>
-      </c>
-      <c r="J6">
-        <v>0.94</v>
-      </c>
-      <c r="K6">
-        <v>12.93</v>
-      </c>
-      <c r="L6">
-        <v>0.88</v>
-      </c>
-      <c r="M6">
-        <v>20.63</v>
-      </c>
-      <c r="N6">
-        <v>0.92</v>
-      </c>
-      <c r="O6">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.89</v>
-      </c>
-      <c r="Q6">
-        <v>26.67</v>
-      </c>
-      <c r="R6">
-        <v>0.69</v>
-      </c>
-      <c r="S6">
-        <v>34.53</v>
-      </c>
-      <c r="T6">
-        <v>0.72</v>
-      </c>
-      <c r="U6">
-        <v>29.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.765754411235146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -922,59 +736,26 @@
       <c r="D7">
         <v>0.89</v>
       </c>
-      <c r="E7">
-        <v>25.39</v>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1053964984552009</v>
       </c>
       <c r="F7">
         <v>0.8</v>
       </c>
-      <c r="G7">
-        <v>32.549999999999997</v>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7264325323475047</v>
       </c>
       <c r="H7">
         <v>0.83</v>
       </c>
-      <c r="I7">
-        <v>28.23</v>
-      </c>
-      <c r="J7">
-        <v>0.93</v>
-      </c>
-      <c r="K7">
-        <v>13.03</v>
-      </c>
-      <c r="L7">
-        <v>0.88</v>
-      </c>
-      <c r="M7">
-        <v>21.18</v>
-      </c>
-      <c r="N7">
-        <v>0.92</v>
-      </c>
-      <c r="O7">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.88</v>
-      </c>
-      <c r="Q7">
-        <v>26.88</v>
-      </c>
-      <c r="R7">
-        <v>0.69</v>
-      </c>
-      <c r="S7">
-        <v>35.47</v>
-      </c>
-      <c r="T7">
-        <v>0.72</v>
-      </c>
-      <c r="U7">
-        <v>30.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7911737523105358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -987,59 +768,32 @@
       <c r="D8">
         <v>0.97</v>
       </c>
-      <c r="E8">
-        <v>24.73</v>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0712637362637363</v>
       </c>
       <c r="F8">
         <v>0.94</v>
       </c>
-      <c r="G8">
-        <v>26.58</v>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4131470512490341</v>
       </c>
       <c r="H8">
         <v>0.96</v>
       </c>
-      <c r="I8">
-        <v>22.75</v>
-      </c>
-      <c r="J8">
-        <v>0.97</v>
-      </c>
-      <c r="K8">
-        <v>12.09</v>
-      </c>
-      <c r="L8">
-        <v>0.96</v>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4432140097862476</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.99</v>
-      </c>
-      <c r="O8">
-        <v>12.45</v>
-      </c>
-      <c r="P8">
-        <v>0.98</v>
-      </c>
-      <c r="Q8">
-        <v>26.6</v>
-      </c>
-      <c r="R8">
-        <v>0.91</v>
-      </c>
-      <c r="S8">
-        <v>32.590000000000003</v>
-      </c>
-      <c r="T8">
-        <v>0.96</v>
-      </c>
-      <c r="U8">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1052,59 +806,32 @@
       <c r="D9">
         <v>0.98</v>
       </c>
-      <c r="E9">
-        <v>24.61</v>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0734604904632152</v>
       </c>
       <c r="F9">
         <v>0.95</v>
       </c>
-      <c r="G9">
-        <v>26.17</v>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.402003539375553</v>
       </c>
       <c r="H9">
         <v>0.97</v>
       </c>
-      <c r="I9">
-        <v>22.41</v>
-      </c>
-      <c r="J9">
-        <v>0.97</v>
-      </c>
-      <c r="K9">
-        <v>11.99</v>
-      </c>
-      <c r="L9">
-        <v>0.96</v>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4315194033624068</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>15.8</v>
-      </c>
-      <c r="N9">
-        <v>0.99</v>
-      </c>
-      <c r="O9">
-        <v>12.24</v>
-      </c>
-      <c r="P9">
-        <v>0.98</v>
-      </c>
-      <c r="Q9">
-        <v>26.29</v>
-      </c>
-      <c r="R9">
-        <v>0.91</v>
-      </c>
-      <c r="S9">
-        <v>31.89</v>
-      </c>
-      <c r="T9">
-        <v>0.96</v>
-      </c>
-      <c r="U9">
-        <v>27.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1117,59 +844,26 @@
       <c r="D10">
         <v>0.97</v>
       </c>
-      <c r="E10">
-        <v>24.37</v>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0639563437926329</v>
       </c>
       <c r="F10">
         <v>0.94</v>
       </c>
-      <c r="G10">
-        <v>26.26</v>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4035682312316151</v>
       </c>
       <c r="H10">
         <v>0.95</v>
       </c>
-      <c r="I10">
-        <v>22.39</v>
-      </c>
-      <c r="J10">
-        <v>0.97</v>
-      </c>
-      <c r="K10">
-        <v>11.96</v>
-      </c>
-      <c r="L10">
-        <v>0.96</v>
-      </c>
-      <c r="M10">
-        <v>16.04</v>
-      </c>
-      <c r="N10">
-        <v>0.99</v>
-      </c>
-      <c r="O10">
-        <v>12.39</v>
-      </c>
-      <c r="P10">
-        <v>0.98</v>
-      </c>
-      <c r="Q10">
-        <v>26.28</v>
-      </c>
-      <c r="R10">
-        <v>0.92</v>
-      </c>
-      <c r="S10">
-        <v>32.4</v>
-      </c>
-      <c r="T10">
-        <v>0.96</v>
-      </c>
-      <c r="U10">
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.418499808159611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1182,59 +876,26 @@
       <c r="D11">
         <v>0.97</v>
       </c>
-      <c r="E11">
-        <v>24.43</v>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0586606334841628</v>
       </c>
       <c r="F11">
         <v>0.94</v>
       </c>
-      <c r="G11">
-        <v>26.38</v>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4073480379584509</v>
       </c>
       <c r="H11">
         <v>0.96</v>
       </c>
-      <c r="I11">
-        <v>22.56</v>
-      </c>
-      <c r="J11">
-        <v>0.98</v>
-      </c>
-      <c r="K11">
-        <v>11.99</v>
-      </c>
-      <c r="L11">
-        <v>0.96</v>
-      </c>
-      <c r="M11">
-        <v>16.07</v>
-      </c>
-      <c r="N11">
-        <v>0.99</v>
-      </c>
-      <c r="O11">
-        <v>12.43</v>
-      </c>
-      <c r="P11">
-        <v>0.98</v>
-      </c>
-      <c r="Q11">
-        <v>26.2</v>
-      </c>
-      <c r="R11">
-        <v>0.92</v>
-      </c>
-      <c r="S11">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="T11">
-        <v>0.96</v>
-      </c>
-      <c r="U11">
-        <v>28.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4372916132341624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1247,59 +908,26 @@
       <c r="D12">
         <v>0.95</v>
       </c>
-      <c r="E12">
-        <v>24.3</v>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0544868844914865</v>
       </c>
       <c r="F12">
         <v>0.88</v>
       </c>
-      <c r="G12">
-        <v>24.95</v>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3356734269370776</v>
       </c>
       <c r="H12">
         <v>0.91</v>
       </c>
-      <c r="I12">
-        <v>21.78</v>
-      </c>
-      <c r="J12">
-        <v>0.96</v>
-      </c>
-      <c r="K12">
-        <v>11.92</v>
-      </c>
-      <c r="L12">
-        <v>0.9</v>
-      </c>
-      <c r="M12">
-        <v>15.26</v>
-      </c>
-      <c r="N12">
-        <v>0.94</v>
-      </c>
-      <c r="O12">
-        <v>11.93</v>
-      </c>
-      <c r="P12">
-        <v>0.95</v>
-      </c>
-      <c r="Q12">
-        <v>25.82</v>
-      </c>
-      <c r="R12">
-        <v>0.78</v>
-      </c>
-      <c r="S12">
-        <v>28.02</v>
-      </c>
-      <c r="T12">
-        <v>0.82</v>
-      </c>
-      <c r="U12">
-        <v>24.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3812077483099325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1312,59 +940,26 @@
       <c r="D13">
         <v>0.9</v>
       </c>
-      <c r="E13">
-        <v>23.11</v>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0054654932839278</v>
       </c>
       <c r="F13">
         <v>0.93</v>
       </c>
-      <c r="G13">
-        <v>25.61</v>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3624984314217594</v>
       </c>
       <c r="H13">
         <v>0.95</v>
       </c>
-      <c r="I13">
-        <v>21.81</v>
-      </c>
-      <c r="J13">
-        <v>0.9</v>
-      </c>
-      <c r="K13">
-        <v>11.26</v>
-      </c>
-      <c r="L13">
-        <v>0.96</v>
-      </c>
-      <c r="M13">
-        <v>15.66</v>
-      </c>
-      <c r="N13">
-        <v>0.97</v>
-      </c>
-      <c r="O13">
-        <v>12</v>
-      </c>
-      <c r="P13">
-        <v>0.89</v>
-      </c>
-      <c r="Q13">
-        <v>24.36</v>
-      </c>
-      <c r="R13">
-        <v>0.82</v>
-      </c>
-      <c r="S13">
-        <v>28.55</v>
-      </c>
-      <c r="T13">
-        <v>0.85</v>
-      </c>
-      <c r="U13">
-        <v>24.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3917994729577112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1377,59 +972,26 @@
       <c r="D14">
         <v>0.99</v>
       </c>
-      <c r="E14">
-        <v>24.44</v>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0631700801424755</v>
       </c>
       <c r="F14">
         <v>0.99</v>
       </c>
-      <c r="G14">
-        <v>28.67</v>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5256401795142556</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>24.18</v>
-      </c>
-      <c r="J14">
-        <v>0.98</v>
-      </c>
-      <c r="K14">
-        <v>11.84</v>
-      </c>
-      <c r="L14">
-        <v>0.99</v>
-      </c>
-      <c r="M14">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>12.95</v>
-      </c>
-      <c r="P14">
-        <v>0.99</v>
-      </c>
-      <c r="Q14">
-        <v>26.14</v>
-      </c>
-      <c r="R14">
-        <v>0.95</v>
-      </c>
-      <c r="S14">
-        <v>34.81</v>
-      </c>
-      <c r="T14">
-        <v>0.99</v>
-      </c>
-      <c r="U14">
-        <v>29.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.541050686378036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1442,59 +1004,26 @@
       <c r="D15">
         <v>0.99</v>
       </c>
-      <c r="E15">
-        <v>24.39</v>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0626969292389854</v>
       </c>
       <c r="F15">
         <v>0.99</v>
       </c>
-      <c r="G15">
-        <v>28.76</v>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5304886122881354</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>24.26</v>
-      </c>
-      <c r="J15">
-        <v>0.98</v>
-      </c>
-      <c r="K15">
-        <v>11.84</v>
-      </c>
-      <c r="L15">
-        <v>0.99</v>
-      </c>
-      <c r="M15">
-        <v>17.12</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>12.99</v>
-      </c>
-      <c r="P15">
-        <v>0.99</v>
-      </c>
-      <c r="Q15">
-        <v>26.08</v>
-      </c>
-      <c r="R15">
-        <v>0.95</v>
-      </c>
-      <c r="S15">
-        <v>34.97</v>
-      </c>
-      <c r="T15">
-        <v>0.99</v>
-      </c>
-      <c r="U15">
-        <v>29.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5459480932203389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1507,59 +1036,26 @@
       <c r="D16">
         <v>0.99</v>
       </c>
-      <c r="E16">
-        <v>24.37</v>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0858935879945428</v>
       </c>
       <c r="F16">
         <v>0.99</v>
       </c>
-      <c r="G16">
-        <v>28.54</v>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4782261158715948</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>24.28</v>
-      </c>
-      <c r="J16">
-        <v>0.98</v>
-      </c>
-      <c r="K16">
-        <v>11.81</v>
-      </c>
-      <c r="L16">
-        <v>0.98</v>
-      </c>
-      <c r="M16">
-        <v>16.98</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>12.99</v>
-      </c>
-      <c r="P16">
-        <v>0.99</v>
-      </c>
-      <c r="Q16">
-        <v>26.1</v>
-      </c>
-      <c r="R16">
-        <v>0.95</v>
-      </c>
-      <c r="S16">
-        <v>34.83</v>
-      </c>
-      <c r="T16">
-        <v>0.99</v>
-      </c>
-      <c r="U16">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4931576927995907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1572,59 +1068,26 @@
       <c r="D17">
         <v>0.99</v>
       </c>
-      <c r="E17">
-        <v>24.36</v>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0593966282165039</v>
       </c>
       <c r="F17">
         <v>0.99</v>
       </c>
-      <c r="G17">
-        <v>28.48</v>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5268494055482165</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>24.21</v>
-      </c>
-      <c r="J17">
-        <v>0.98</v>
-      </c>
-      <c r="K17">
-        <v>11.8</v>
-      </c>
-      <c r="L17">
-        <v>0.98</v>
-      </c>
-      <c r="M17">
-        <v>16.96</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>12.96</v>
-      </c>
-      <c r="P17">
-        <v>0.99</v>
-      </c>
-      <c r="Q17">
-        <v>26.09</v>
-      </c>
-      <c r="R17">
-        <v>0.95</v>
-      </c>
-      <c r="S17">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="T17">
-        <v>0.99</v>
-      </c>
-      <c r="U17">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5422721268163804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1637,59 +1100,26 @@
       <c r="D18">
         <v>0.98</v>
       </c>
-      <c r="E18">
-        <v>24.47</v>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0671602708803611</v>
       </c>
       <c r="F18">
         <v>0.95</v>
       </c>
-      <c r="G18">
-        <v>27.83</v>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4877598926894702</v>
       </c>
       <c r="H18">
         <v>0.97</v>
       </c>
-      <c r="I18">
-        <v>23.89</v>
-      </c>
-      <c r="J18">
-        <v>0.97</v>
-      </c>
-      <c r="K18">
-        <v>11.92</v>
-      </c>
-      <c r="L18">
-        <v>0.95</v>
-      </c>
-      <c r="M18">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.98</v>
-      </c>
-      <c r="O18">
-        <v>12.92</v>
-      </c>
-      <c r="P18">
-        <v>0.98</v>
-      </c>
-      <c r="Q18">
-        <v>26.19</v>
-      </c>
-      <c r="R18">
-        <v>0.93</v>
-      </c>
-      <c r="S18">
-        <v>34.409999999999997</v>
-      </c>
-      <c r="T18">
-        <v>0.97</v>
-      </c>
-      <c r="U18">
-        <v>29.78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5190811535881958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1702,59 +1132,26 @@
       <c r="D19">
         <v>0.99</v>
       </c>
-      <c r="E19">
-        <v>24.48</v>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0664939705225547</v>
       </c>
       <c r="F19">
         <v>0.99</v>
       </c>
-      <c r="G19">
-        <v>28.93</v>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.539252896524171</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>24.38</v>
-      </c>
-      <c r="J19">
-        <v>0.98</v>
-      </c>
-      <c r="K19">
-        <v>11.88</v>
-      </c>
-      <c r="L19">
-        <v>0.99</v>
-      </c>
-      <c r="M19">
-        <v>17.23</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>13.06</v>
-      </c>
-      <c r="P19">
-        <v>0.99</v>
-      </c>
-      <c r="Q19">
-        <v>26.17</v>
-      </c>
-      <c r="R19">
-        <v>0.96</v>
-      </c>
-      <c r="S19">
-        <v>35.32</v>
-      </c>
-      <c r="T19">
-        <v>0.99</v>
-      </c>
-      <c r="U19">
-        <v>30.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5548009055799707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1767,59 +1164,26 @@
       <c r="D20">
         <v>0.98</v>
       </c>
-      <c r="E20">
-        <v>24.72</v>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0778659370725032</v>
       </c>
       <c r="F20">
         <v>0.96</v>
       </c>
-      <c r="G20">
-        <v>29.13</v>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5562343793390725</v>
       </c>
       <c r="H20">
         <v>0.97</v>
       </c>
-      <c r="I20">
-        <v>24.81</v>
-      </c>
-      <c r="J20">
-        <v>0.98</v>
-      </c>
-      <c r="K20">
-        <v>12.08</v>
-      </c>
-      <c r="L20">
-        <v>0.97</v>
-      </c>
-      <c r="M20">
-        <v>17.55</v>
-      </c>
-      <c r="N20">
-        <v>0.99</v>
-      </c>
-      <c r="O20">
-        <v>13.52</v>
-      </c>
-      <c r="P20">
-        <v>0.98</v>
-      </c>
-      <c r="Q20">
-        <v>26.49</v>
-      </c>
-      <c r="R20">
-        <v>0.93</v>
-      </c>
-      <c r="S20">
-        <v>35.619999999999997</v>
-      </c>
-      <c r="T20">
-        <v>0.97</v>
-      </c>
-      <c r="U20">
-        <v>30.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5724451541238544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1832,59 +1196,26 @@
       <c r="D21">
         <v>0.98</v>
       </c>
-      <c r="E21">
-        <v>24.65</v>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0729732183386291</v>
       </c>
       <c r="F21">
         <v>0.96</v>
       </c>
-      <c r="G21">
-        <v>29.97</v>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6004569470227046</v>
       </c>
       <c r="H21">
         <v>0.98</v>
       </c>
-      <c r="I21">
-        <v>24.69</v>
-      </c>
-      <c r="J21">
-        <v>0.98</v>
-      </c>
-      <c r="K21">
-        <v>12.03</v>
-      </c>
-      <c r="L21">
-        <v>0.97</v>
-      </c>
-      <c r="M21">
-        <v>18.05</v>
-      </c>
-      <c r="N21">
-        <v>0.99</v>
-      </c>
-      <c r="O21">
-        <v>13.92</v>
-      </c>
-      <c r="P21">
-        <v>0.98</v>
-      </c>
-      <c r="Q21">
-        <v>26.33</v>
-      </c>
-      <c r="R21">
-        <v>0.85</v>
-      </c>
-      <c r="S21">
-        <v>33.44</v>
-      </c>
-      <c r="T21">
-        <v>0.88</v>
-      </c>
-      <c r="U21">
-        <v>28.47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6337998000856775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1897,59 +1228,26 @@
       <c r="D22">
         <v>0.98</v>
       </c>
-      <c r="E22">
-        <v>24.69</v>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0729732183386291</v>
       </c>
       <c r="F22">
         <v>0.96</v>
       </c>
-      <c r="G22">
-        <v>30.45</v>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6191852065876913</v>
       </c>
       <c r="H22">
         <v>0.98</v>
       </c>
-      <c r="I22">
-        <v>25.96</v>
-      </c>
-      <c r="J22">
-        <v>0.98</v>
-      </c>
-      <c r="K22">
-        <v>12.03</v>
-      </c>
-      <c r="L22">
-        <v>0.97</v>
-      </c>
-      <c r="M22">
-        <v>18.28</v>
-      </c>
-      <c r="N22">
-        <v>0.99</v>
-      </c>
-      <c r="O22">
-        <v>14.09</v>
-      </c>
-      <c r="P22">
-        <v>0.98</v>
-      </c>
-      <c r="Q22">
-        <v>26.37</v>
-      </c>
-      <c r="R22">
-        <v>0.85</v>
-      </c>
-      <c r="S22">
-        <v>33.99</v>
-      </c>
-      <c r="T22">
-        <v>0.88</v>
-      </c>
-      <c r="U22">
-        <v>28.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6529182317249349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1962,59 +1260,26 @@
       <c r="D23">
         <v>0.98</v>
       </c>
-      <c r="E23">
-        <v>24.7</v>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0734604904632152</v>
       </c>
       <c r="F23">
         <v>0.96</v>
       </c>
-      <c r="G23">
-        <v>30.1</v>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5988587731811696</v>
       </c>
       <c r="H23">
         <v>0.98</v>
       </c>
-      <c r="I23">
-        <v>25.63</v>
-      </c>
-      <c r="J23">
-        <v>0.97</v>
-      </c>
-      <c r="K23">
-        <v>11.99</v>
-      </c>
-      <c r="L23">
-        <v>0.97</v>
-      </c>
-      <c r="M23">
-        <v>18.03</v>
-      </c>
-      <c r="N23">
-        <v>0.99</v>
-      </c>
-      <c r="O23">
-        <v>13.88</v>
-      </c>
-      <c r="P23">
-        <v>0.98</v>
-      </c>
-      <c r="Q23">
-        <v>26.43</v>
-      </c>
-      <c r="R23">
-        <v>0.85</v>
-      </c>
-      <c r="S23">
-        <v>33.64</v>
-      </c>
-      <c r="T23">
-        <v>0.88</v>
-      </c>
-      <c r="U23">
-        <v>28.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6321683309557775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2027,59 +1292,26 @@
       <c r="D24">
         <v>0.97</v>
       </c>
-      <c r="E24">
-        <v>24.66</v>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0702836230558097</v>
       </c>
       <c r="F24">
         <v>0.93</v>
       </c>
-      <c r="G24">
-        <v>28.97</v>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5519939965694682</v>
       </c>
       <c r="H24">
         <v>0.96</v>
       </c>
-      <c r="I24">
-        <v>25.16</v>
-      </c>
-      <c r="J24">
-        <v>0.97</v>
-      </c>
-      <c r="K24">
-        <v>12.08</v>
-      </c>
-      <c r="L24">
-        <v>0.92</v>
-      </c>
-      <c r="M24">
-        <v>17.21</v>
-      </c>
-      <c r="N24">
-        <v>0.96</v>
-      </c>
-      <c r="O24">
-        <v>13.39</v>
-      </c>
-      <c r="P24">
-        <v>0.97</v>
-      </c>
-      <c r="Q24">
-        <v>26.21</v>
-      </c>
-      <c r="R24">
-        <v>0.83</v>
-      </c>
-      <c r="S24">
-        <v>32.78</v>
-      </c>
-      <c r="T24">
-        <v>0.87</v>
-      </c>
-      <c r="U24">
-        <v>28.34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6020583190394511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2092,56 +1324,1611 @@
       <c r="D25">
         <v>0.98</v>
       </c>
-      <c r="E25">
-        <v>24.75</v>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0793424657534245</v>
       </c>
       <c r="F25">
         <v>0.97</v>
       </c>
-      <c r="G25">
-        <v>30.07</v>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6095437748720864</v>
       </c>
       <c r="H25">
         <v>0.98</v>
       </c>
-      <c r="I25">
-        <v>25.64</v>
-      </c>
-      <c r="J25">
-        <v>0.97</v>
-      </c>
-      <c r="K25">
-        <v>12.05</v>
-      </c>
-      <c r="L25">
-        <v>0.97</v>
-      </c>
-      <c r="M25">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="N25">
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6261370096645822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1928</v>
+      </c>
+      <c r="C34">
+        <v>5296</v>
+      </c>
+      <c r="D34">
+        <v>0.93</v>
+      </c>
+      <c r="E34">
+        <f>(D34)*($M$8/B34)</f>
+        <v>1.1634647302904564</v>
+      </c>
+      <c r="F34">
+        <v>0.88</v>
+      </c>
+      <c r="G34">
+        <f>(F34)*($M$9/C34)</f>
+        <v>1.9399546827794563</v>
+      </c>
+      <c r="H34">
+        <v>0.92</v>
+      </c>
+      <c r="I34">
+        <f>(H34)*($M$9/C34)</f>
+        <v>2.0281344410876132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>13.89</v>
-      </c>
-      <c r="P25">
-        <v>0.97</v>
-      </c>
-      <c r="Q25">
-        <v>26.21</v>
-      </c>
-      <c r="R25">
+      <c r="B35">
+        <v>1919</v>
+      </c>
+      <c r="C35">
+        <v>5320</v>
+      </c>
+      <c r="D35">
+        <v>0.93</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E57" si="3">(D35)*($M$8/B35)</f>
+        <v>1.16892131318395</v>
+      </c>
+      <c r="F35">
+        <v>0.88</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G57" si="4">(F35)*($M$9/C35)</f>
+        <v>1.9312030075187969</v>
+      </c>
+      <c r="H35">
+        <v>0.92</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I57" si="5">(H35)*($M$9/C35)</f>
+        <v>2.018984962406015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1913</v>
+      </c>
+      <c r="C36">
+        <v>5305</v>
+      </c>
+      <c r="D36">
+        <v>0.93</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1.1725875588081549</v>
+      </c>
+      <c r="F36">
+        <v>0.88</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>1.9366635249764375</v>
+      </c>
+      <c r="H36">
+        <v>0.92</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>2.0246936852026391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1910</v>
+      </c>
+      <c r="C37">
+        <v>5217</v>
+      </c>
+      <c r="D37">
+        <v>0.94</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1.1870575916230366</v>
+      </c>
+      <c r="F37">
+        <v>0.88</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>1.9693310331608203</v>
+      </c>
+      <c r="H37">
+        <v>0.92</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>2.0588460801226756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1972</v>
+      </c>
+      <c r="C38">
+        <v>5554</v>
+      </c>
+      <c r="D38">
+        <v>0.94</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1.14973630831643</v>
+      </c>
+      <c r="F38">
+        <v>0.88</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>1.8498379546272958</v>
+      </c>
+      <c r="H38">
+        <v>0.92</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>1.9339214980194457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1942</v>
+      </c>
+      <c r="C39">
+        <v>5410</v>
+      </c>
+      <c r="D39">
+        <v>0.93</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1.1550772399588054</v>
+      </c>
+      <c r="F39">
+        <v>0.88</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>1.8990757855822551</v>
+      </c>
+      <c r="H39">
+        <v>0.92</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>1.9853974121996303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2184</v>
+      </c>
+      <c r="C40">
+        <v>7766</v>
+      </c>
+      <c r="D40">
+        <v>0.97</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1.0712637362637363</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>1.4432140097862476</v>
+      </c>
+      <c r="H40">
+        <v>0.99</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>1.488314447592068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2202</v>
+      </c>
+      <c r="C41">
+        <v>7911</v>
+      </c>
+      <c r="D41">
+        <v>0.97</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1.0625068119891008</v>
+      </c>
+      <c r="F41">
+        <v>0.96</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>1.4167614713689798</v>
+      </c>
+      <c r="H41">
+        <v>0.99</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>1.4610352673492606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2199</v>
+      </c>
+      <c r="C42">
+        <v>7819</v>
+      </c>
+      <c r="D42">
+        <v>0.97</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>1.0639563437926329</v>
+      </c>
+      <c r="F42">
+        <v>0.96</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>1.433431385087607</v>
+      </c>
+      <c r="H42">
+        <v>0.99</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>1.4782261158715948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2210</v>
+      </c>
+      <c r="C43">
+        <v>7798</v>
+      </c>
+      <c r="D43">
+        <v>0.98</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>1.0695746606334839</v>
+      </c>
+      <c r="F43">
+        <v>0.96</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>1.4372916132341624</v>
+      </c>
+      <c r="H43">
+        <v>0.99</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>1.4822069761477301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>2173</v>
+      </c>
+      <c r="C44">
+        <v>7692</v>
+      </c>
+      <c r="D44">
+        <v>0.96</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1.065586746433502</v>
+      </c>
+      <c r="F44">
+        <v>0.9</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>1.3660296411856474</v>
+      </c>
+      <c r="H44">
+        <v>0.94</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>1.4267420696827873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>2159</v>
+      </c>
+      <c r="C45">
+        <v>7969</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>1.0054654932839278</v>
+      </c>
+      <c r="F45">
+        <v>0.96</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>1.4064499937256871</v>
+      </c>
+      <c r="H45">
+        <v>0.97</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>1.421100514493663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2246</v>
+      </c>
+      <c r="C46">
+        <v>7576</v>
+      </c>
+      <c r="D46">
+        <v>0.98</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1.0524309884238647</v>
+      </c>
+      <c r="F46">
+        <v>0.99</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>1.5256401795142556</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>1.541050686378036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>2247</v>
+      </c>
+      <c r="C47">
+        <v>7552</v>
+      </c>
+      <c r="D47">
+        <v>0.98</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>1.0519626168224299</v>
+      </c>
+      <c r="F47">
+        <v>0.99</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1.5304886122881354</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>1.5459480932203389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>2199</v>
+      </c>
+      <c r="C48">
+        <v>7819</v>
+      </c>
+      <c r="D48">
+        <v>0.98</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>1.074924965893588</v>
+      </c>
+      <c r="F48">
+        <v>0.98</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>1.4632945389435987</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>1.4931576927995907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>2254</v>
+      </c>
+      <c r="C49">
+        <v>7570</v>
+      </c>
+      <c r="D49">
+        <v>0.98</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1.048695652173913</v>
+      </c>
+      <c r="F49">
+        <v>0.98</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>1.5114266842800528</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>1.5422721268163804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>2215</v>
+      </c>
+      <c r="C50">
+        <v>7455</v>
+      </c>
+      <c r="D50">
+        <v>0.97</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1.0562708803611738</v>
+      </c>
+      <c r="F50">
+        <v>0.95</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>1.4877598926894702</v>
+      </c>
+      <c r="H50">
+        <v>0.98</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>1.5347417840375588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>2239</v>
+      </c>
+      <c r="C51">
+        <v>7509</v>
+      </c>
+      <c r="D51">
+        <v>0.98</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1.05572130415364</v>
+      </c>
+      <c r="F51">
+        <v>0.99</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>1.539252896524171</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>1.5548009055799707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>2193</v>
+      </c>
+      <c r="C52">
+        <v>7202</v>
+      </c>
+      <c r="D52">
+        <v>0.98</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1.0778659370725032</v>
+      </c>
+      <c r="F52">
+        <v>0.97</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>1.5724451541238544</v>
+      </c>
+      <c r="H52">
+        <v>0.99</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>1.6048667036934186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>2203</v>
+      </c>
+      <c r="C53">
+        <v>7003</v>
+      </c>
+      <c r="D53">
+        <v>0.98</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1.0729732183386291</v>
+      </c>
+      <c r="F53">
+        <v>0.97</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>1.617128373554191</v>
+      </c>
+      <c r="H53">
+        <v>0.99</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>1.6504712266171642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54">
+        <v>2203</v>
+      </c>
+      <c r="C54">
+        <v>6922</v>
+      </c>
+      <c r="D54">
+        <v>0.98</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>1.0729732183386291</v>
+      </c>
+      <c r="F54">
+        <v>0.97</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>1.6360517191563131</v>
+      </c>
+      <c r="H54">
+        <v>0.99</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>1.6697847442935567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>2202</v>
+      </c>
+      <c r="C55">
+        <v>7010</v>
+      </c>
+      <c r="D55">
+        <v>0.97</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>1.0625068119891008</v>
+      </c>
+      <c r="F55">
+        <v>0.97</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>1.6155135520684736</v>
+      </c>
+      <c r="H55">
+        <v>0.99</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>1.6488231098430812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>2186</v>
+      </c>
+      <c r="C56">
+        <v>6996</v>
+      </c>
+      <c r="D56">
+        <v>0.97</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>1.0702836230558097</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>1.535305889079474</v>
+      </c>
+      <c r="H56">
+        <v>0.96</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>1.6020583190394511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>2190</v>
+      </c>
+      <c r="C57">
+        <v>7036</v>
+      </c>
+      <c r="D57">
+        <v>0.97</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>1.0683287671232875</v>
+      </c>
+      <c r="F57">
+        <v>0.97</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>1.6095437748720864</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>1.6593234792495737</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1928</v>
+      </c>
+      <c r="C65">
+        <v>5296</v>
+      </c>
+      <c r="D65">
+        <v>0.89</v>
+      </c>
+      <c r="E65" s="1">
+        <f>(D65)*($M$8/B65)</f>
+        <v>1.1134232365145229</v>
+      </c>
+      <c r="F65">
+        <v>0.69</v>
+      </c>
+      <c r="G65" s="1">
+        <f>(F65)*($M$9/C65)</f>
+        <v>1.5211008308157099</v>
+      </c>
+      <c r="H65">
+        <v>0.72</v>
+      </c>
+      <c r="I65" s="1">
+        <f>(H65)*($M$9/C65)</f>
+        <v>1.5872356495468278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1919</v>
+      </c>
+      <c r="C66">
+        <v>5320</v>
+      </c>
+      <c r="D66">
+        <v>0.89</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" ref="E66:E88" si="6">(D66)*($M$8/B66)</f>
+        <v>1.1186451276706617</v>
+      </c>
+      <c r="F66">
+        <v>0.69</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G88" si="7">(F66)*($M$9/C66)</f>
+        <v>1.5142387218045112</v>
+      </c>
+      <c r="H66">
+        <v>0.72</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I88" si="8">(H66)*($M$9/C66)</f>
+        <v>1.5800751879699249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>1913</v>
+      </c>
+      <c r="C67">
+        <v>5305</v>
+      </c>
+      <c r="D67">
+        <v>0.89</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1221536853110299</v>
+      </c>
+      <c r="F67">
+        <v>0.69</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5185202639019793</v>
+      </c>
+      <c r="H67">
+        <v>0.72</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5845428840716305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>1910</v>
+      </c>
+      <c r="C68">
+        <v>5217</v>
+      </c>
+      <c r="D68">
+        <v>0.89</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1239162303664922</v>
+      </c>
+      <c r="F68">
+        <v>0.68</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5217557983515431</v>
+      </c>
+      <c r="H68">
+        <v>0.71</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5888920835729343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>1972</v>
+      </c>
+      <c r="C69">
+        <v>5554</v>
+      </c>
+      <c r="D69">
+        <v>0.89</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="6"/>
+        <v>1.088580121703854</v>
+      </c>
+      <c r="F69">
+        <v>0.69</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="7"/>
+        <v>1.450441123514584</v>
+      </c>
+      <c r="H69">
+        <v>0.72</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5135037810586964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>1942</v>
+      </c>
+      <c r="C70">
+        <v>5410</v>
+      </c>
+      <c r="D70">
+        <v>0.88</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0929763130792998</v>
+      </c>
+      <c r="F70">
+        <v>0.69</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4890480591497226</v>
+      </c>
+      <c r="H70">
+        <v>0.72</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5537892791127541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>2184</v>
+      </c>
+      <c r="C71">
+        <v>7766</v>
+      </c>
+      <c r="D71">
+        <v>0.98</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0823076923076924</v>
+      </c>
+      <c r="F71">
+        <v>0.91</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3680466134432139</v>
+      </c>
+      <c r="H71">
+        <v>0.96</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4432140097862476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2202</v>
+      </c>
+      <c r="C72">
+        <v>7911</v>
+      </c>
+      <c r="D72">
+        <v>0.98</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0734604904632152</v>
+      </c>
+      <c r="F72">
+        <v>0.91</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3429718114018456</v>
+      </c>
+      <c r="H72">
+        <v>0.96</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4167614713689798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>2199</v>
+      </c>
+      <c r="C73">
+        <v>7819</v>
+      </c>
+      <c r="D73">
+        <v>0.98</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="6"/>
+        <v>1.074924965893588</v>
+      </c>
+      <c r="F73">
+        <v>0.92</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3737050773756234</v>
+      </c>
+      <c r="H73">
+        <v>0.96</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="8"/>
+        <v>1.433431385087607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>2210</v>
+      </c>
+      <c r="C74">
+        <v>7798</v>
+      </c>
+      <c r="D74">
+        <v>0.98</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0695746606334839</v>
+      </c>
+      <c r="F74">
+        <v>0.92</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3774044626827391</v>
+      </c>
+      <c r="H74">
+        <v>0.96</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4372916132341624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>2173</v>
+      </c>
+      <c r="C75">
+        <v>7692</v>
+      </c>
+      <c r="D75">
+        <v>0.95</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0544868844914865</v>
+      </c>
+      <c r="F75">
+        <v>0.78</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1838923556942278</v>
+      </c>
+      <c r="H75">
+        <v>0.82</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2446047841913677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>2159</v>
+      </c>
+      <c r="C76">
+        <v>7969</v>
+      </c>
+      <c r="D76">
+        <v>0.89</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99429365446966189</v>
+      </c>
+      <c r="F76">
+        <v>0.82</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2013427029740242</v>
+      </c>
+      <c r="H76">
+        <v>0.85</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2452942652779522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>2246</v>
+      </c>
+      <c r="C77">
+        <v>7576</v>
+      </c>
+      <c r="D77">
+        <v>0.99</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0631700801424755</v>
+      </c>
+      <c r="F77">
+        <v>0.95</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4639981520591341</v>
+      </c>
+      <c r="H77">
+        <v>0.99</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5256401795142556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>2247</v>
+      </c>
+      <c r="C78">
+        <v>7552</v>
+      </c>
+      <c r="D78">
+        <v>0.99</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0626969292389854</v>
+      </c>
+      <c r="F78">
+        <v>0.95</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4686506885593218</v>
+      </c>
+      <c r="H78">
+        <v>0.99</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5304886122881354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>2199</v>
+      </c>
+      <c r="C79">
+        <v>7819</v>
+      </c>
+      <c r="D79">
+        <v>0.99</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0858935879945428</v>
+      </c>
+      <c r="F79">
+        <v>0.95</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="7"/>
+        <v>1.418499808159611</v>
+      </c>
+      <c r="H79">
+        <v>0.99</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4782261158715948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>2254</v>
+      </c>
+      <c r="C80">
+        <v>7570</v>
+      </c>
+      <c r="D80">
+        <v>0.99</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0593966282165039</v>
+      </c>
+      <c r="F80">
+        <v>0.95</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4651585204755613</v>
+      </c>
+      <c r="H80">
+        <v>0.99</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5268494055482165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>2215</v>
+      </c>
+      <c r="C81">
+        <v>7455</v>
+      </c>
+      <c r="D81">
+        <v>0.98</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0671602708803611</v>
+      </c>
+      <c r="F81">
+        <v>0.93</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4564386317907445</v>
+      </c>
+      <c r="H81">
+        <v>0.97</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5190811535881958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>2239</v>
+      </c>
+      <c r="C82">
+        <v>7509</v>
+      </c>
+      <c r="D82">
+        <v>0.99</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0664939705225547</v>
+      </c>
+      <c r="F82">
+        <v>0.96</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4926088693567718</v>
+      </c>
+      <c r="H82">
+        <v>0.99</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="8"/>
+        <v>1.539252896524171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>2193</v>
+      </c>
+      <c r="C83">
+        <v>7202</v>
+      </c>
+      <c r="D83">
+        <v>0.98</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0778659370725032</v>
+      </c>
+      <c r="F83">
+        <v>0.93</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5076020549847264</v>
+      </c>
+      <c r="H83">
+        <v>0.97</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5724451541238544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>2203</v>
+      </c>
+      <c r="C84">
+        <v>7003</v>
+      </c>
+      <c r="D84">
+        <v>0.98</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0729732183386291</v>
+      </c>
+      <c r="F84">
+        <v>0.85</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4170712551763529</v>
+      </c>
+      <c r="H84">
+        <v>0.88</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4670855347708125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85">
+        <v>2203</v>
+      </c>
+      <c r="C85">
+        <v>6922</v>
+      </c>
+      <c r="D85">
+        <v>0.98</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0729732183386291</v>
+      </c>
+      <c r="F85">
+        <v>0.85</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4336535683328517</v>
+      </c>
+      <c r="H85">
+        <v>0.88</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4842531060387172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86">
+        <v>2202</v>
+      </c>
+      <c r="C86">
+        <v>7010</v>
+      </c>
+      <c r="D86">
+        <v>0.98</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0734604904632152</v>
+      </c>
+      <c r="F86">
+        <v>0.85</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4156562054208273</v>
+      </c>
+      <c r="H86">
+        <v>0.88</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4656205420827388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87">
+        <v>2186</v>
+      </c>
+      <c r="C87">
+        <v>6996</v>
+      </c>
+      <c r="D87">
+        <v>0.97</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0702836230558097</v>
+      </c>
+      <c r="F87">
+        <v>0.83</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3851129216695253</v>
+      </c>
+      <c r="H87">
+        <v>0.87</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4518653516295026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>2190</v>
+      </c>
+      <c r="C88">
+        <v>7036</v>
+      </c>
+      <c r="D88">
+        <v>0.97</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0683287671232875</v>
+      </c>
+      <c r="F88">
         <v>0.86</v>
       </c>
-      <c r="S25">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="T25">
+      <c r="G88" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4270181921546334</v>
+      </c>
+      <c r="H88">
         <v>0.88</v>
       </c>
-      <c r="U25">
-        <v>28.61</v>
+      <c r="I88" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4602046617396249</v>
       </c>
     </row>
   </sheetData>
@@ -2152,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5A513-8C40-4DE1-859A-B31B6077BD69}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2183,9 +2970,10 @@
     <col min="23" max="23" width="25.81640625" customWidth="1"/>
     <col min="24" max="24" width="26.81640625" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +3124,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +3201,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2489,85 +3277,25 @@
       <c r="Y4">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>25.88</v>
-      </c>
-      <c r="C5">
-        <v>25.9</v>
-      </c>
-      <c r="D5">
-        <v>25.93</v>
-      </c>
-      <c r="E5">
-        <v>26.18</v>
-      </c>
-      <c r="F5">
-        <v>25.51</v>
-      </c>
-      <c r="G5">
-        <v>25.39</v>
-      </c>
-      <c r="H5">
-        <v>24.73</v>
-      </c>
-      <c r="I5">
-        <v>24.61</v>
-      </c>
-      <c r="J5">
-        <v>24.37</v>
-      </c>
-      <c r="K5">
-        <v>24.43</v>
-      </c>
-      <c r="L5">
-        <v>24.3</v>
-      </c>
-      <c r="M5">
-        <v>23.11</v>
-      </c>
-      <c r="N5">
-        <v>24.44</v>
-      </c>
-      <c r="O5">
-        <v>24.39</v>
-      </c>
-      <c r="P5">
-        <v>24.37</v>
-      </c>
-      <c r="Q5">
-        <v>24.36</v>
-      </c>
-      <c r="R5">
-        <v>24.47</v>
-      </c>
-      <c r="S5">
-        <v>24.48</v>
-      </c>
-      <c r="T5">
-        <v>24.72</v>
-      </c>
-      <c r="U5">
-        <v>24.65</v>
-      </c>
-      <c r="V5">
-        <v>24.69</v>
-      </c>
-      <c r="W5">
-        <v>24.7</v>
-      </c>
-      <c r="X5">
-        <v>24.66</v>
-      </c>
-      <c r="Y5">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2644,84 +3372,12 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>33.61</v>
-      </c>
-      <c r="C7">
-        <v>33.61</v>
-      </c>
-      <c r="D7">
-        <v>33.479999999999997</v>
-      </c>
-      <c r="E7">
-        <v>33.74</v>
-      </c>
-      <c r="F7">
-        <v>31.87</v>
-      </c>
-      <c r="G7">
-        <v>32.549999999999997</v>
-      </c>
-      <c r="H7">
-        <v>26.58</v>
-      </c>
-      <c r="I7">
-        <v>26.17</v>
-      </c>
-      <c r="J7">
-        <v>26.26</v>
-      </c>
-      <c r="K7">
-        <v>26.38</v>
-      </c>
-      <c r="L7">
-        <v>24.95</v>
-      </c>
-      <c r="M7">
-        <v>25.61</v>
-      </c>
-      <c r="N7">
-        <v>28.67</v>
-      </c>
-      <c r="O7">
-        <v>28.76</v>
-      </c>
-      <c r="P7">
-        <v>28.54</v>
-      </c>
-      <c r="Q7">
-        <v>28.48</v>
-      </c>
-      <c r="R7">
-        <v>27.83</v>
-      </c>
-      <c r="S7">
-        <v>28.93</v>
-      </c>
-      <c r="T7">
-        <v>29.13</v>
-      </c>
-      <c r="U7">
-        <v>29.97</v>
-      </c>
-      <c r="V7">
-        <v>30.45</v>
-      </c>
-      <c r="W7">
-        <v>30.1</v>
-      </c>
-      <c r="X7">
-        <v>28.97</v>
-      </c>
-      <c r="Y7">
-        <v>30.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2798,84 +3454,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
-        <v>29.06</v>
-      </c>
-      <c r="C9">
-        <v>29.06</v>
-      </c>
-      <c r="D9">
-        <v>28.93</v>
-      </c>
-      <c r="E9">
-        <v>29.15</v>
-      </c>
-      <c r="F9">
-        <v>27.69</v>
-      </c>
-      <c r="G9">
-        <v>28.23</v>
-      </c>
-      <c r="H9">
-        <v>22.75</v>
-      </c>
-      <c r="I9">
-        <v>22.41</v>
-      </c>
-      <c r="J9">
-        <v>22.39</v>
-      </c>
-      <c r="K9">
-        <v>22.56</v>
-      </c>
-      <c r="L9">
-        <v>21.78</v>
-      </c>
-      <c r="M9">
-        <v>21.81</v>
-      </c>
-      <c r="N9">
-        <v>24.18</v>
-      </c>
-      <c r="O9">
-        <v>24.26</v>
-      </c>
-      <c r="P9">
-        <v>24.28</v>
-      </c>
-      <c r="Q9">
-        <v>24.21</v>
-      </c>
-      <c r="R9">
-        <v>23.89</v>
-      </c>
-      <c r="S9">
-        <v>24.38</v>
-      </c>
-      <c r="T9">
-        <v>24.81</v>
-      </c>
-      <c r="U9">
-        <v>24.69</v>
-      </c>
-      <c r="V9">
-        <v>25.96</v>
-      </c>
-      <c r="W9">
-        <v>25.63</v>
-      </c>
-      <c r="X9">
-        <v>25.16</v>
-      </c>
-      <c r="Y9">
-        <v>25.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2952,84 +3536,12 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>13.12</v>
-      </c>
-      <c r="C11">
-        <v>13.18</v>
-      </c>
-      <c r="D11">
-        <v>13.23</v>
-      </c>
-      <c r="E11">
-        <v>13.3</v>
-      </c>
-      <c r="F11">
-        <v>12.93</v>
-      </c>
-      <c r="G11">
-        <v>13.03</v>
-      </c>
-      <c r="H11">
-        <v>12.09</v>
-      </c>
-      <c r="I11">
-        <v>11.99</v>
-      </c>
-      <c r="J11">
-        <v>11.96</v>
-      </c>
-      <c r="K11">
-        <v>11.99</v>
-      </c>
-      <c r="L11">
-        <v>11.92</v>
-      </c>
-      <c r="M11">
-        <v>11.26</v>
-      </c>
-      <c r="N11">
-        <v>11.84</v>
-      </c>
-      <c r="O11">
-        <v>11.84</v>
-      </c>
-      <c r="P11">
-        <v>11.81</v>
-      </c>
-      <c r="Q11">
-        <v>11.8</v>
-      </c>
-      <c r="R11">
-        <v>11.92</v>
-      </c>
-      <c r="S11">
-        <v>11.88</v>
-      </c>
-      <c r="T11">
-        <v>12.08</v>
-      </c>
-      <c r="U11">
-        <v>12.03</v>
-      </c>
-      <c r="V11">
-        <v>12.03</v>
-      </c>
-      <c r="W11">
-        <v>11.99</v>
-      </c>
-      <c r="X11">
-        <v>12.08</v>
-      </c>
-      <c r="Y11">
-        <v>12.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3106,84 +3618,12 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>21.73</v>
-      </c>
-      <c r="C13">
-        <v>21.64</v>
-      </c>
-      <c r="D13">
-        <v>21.72</v>
-      </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>20.63</v>
-      </c>
-      <c r="G13">
-        <v>21.18</v>
-      </c>
-      <c r="H13">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="I13">
-        <v>15.8</v>
-      </c>
-      <c r="J13">
-        <v>16.04</v>
-      </c>
-      <c r="K13">
-        <v>16.07</v>
-      </c>
-      <c r="L13">
-        <v>15.26</v>
-      </c>
-      <c r="M13">
-        <v>15.66</v>
-      </c>
-      <c r="N13">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="O13">
-        <v>17.12</v>
-      </c>
-      <c r="P13">
-        <v>16.98</v>
-      </c>
-      <c r="Q13">
-        <v>16.96</v>
-      </c>
-      <c r="R13">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="S13">
-        <v>17.23</v>
-      </c>
-      <c r="T13">
-        <v>17.55</v>
-      </c>
-      <c r="U13">
-        <v>18.05</v>
-      </c>
-      <c r="V13">
-        <v>18.28</v>
-      </c>
-      <c r="W13">
-        <v>18.03</v>
-      </c>
-      <c r="X13">
-        <v>17.21</v>
-      </c>
-      <c r="Y13">
-        <v>18.059999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3260,84 +3700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>17.07</v>
-      </c>
-      <c r="C15">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="D15">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="E15">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="F15">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="G15">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="H15">
-        <v>12.45</v>
-      </c>
-      <c r="I15">
-        <v>12.24</v>
-      </c>
-      <c r="J15">
-        <v>12.39</v>
-      </c>
-      <c r="K15">
-        <v>12.43</v>
-      </c>
-      <c r="L15">
-        <v>11.93</v>
-      </c>
-      <c r="M15">
-        <v>12</v>
-      </c>
-      <c r="N15">
-        <v>12.95</v>
-      </c>
-      <c r="O15">
-        <v>12.99</v>
-      </c>
-      <c r="P15">
-        <v>12.99</v>
-      </c>
-      <c r="Q15">
-        <v>12.96</v>
-      </c>
-      <c r="R15">
-        <v>12.92</v>
-      </c>
-      <c r="S15">
-        <v>13.06</v>
-      </c>
-      <c r="T15">
-        <v>13.52</v>
-      </c>
-      <c r="U15">
-        <v>13.92</v>
-      </c>
-      <c r="V15">
-        <v>14.09</v>
-      </c>
-      <c r="W15">
-        <v>13.88</v>
-      </c>
-      <c r="X15">
-        <v>13.39</v>
-      </c>
-      <c r="Y15">
-        <v>13.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3418,78 +3786,6 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>27.28</v>
-      </c>
-      <c r="C17">
-        <v>27.36</v>
-      </c>
-      <c r="D17">
-        <v>27.39</v>
-      </c>
-      <c r="E17">
-        <v>27.54</v>
-      </c>
-      <c r="F17">
-        <v>26.67</v>
-      </c>
-      <c r="G17">
-        <v>26.88</v>
-      </c>
-      <c r="H17">
-        <v>26.6</v>
-      </c>
-      <c r="I17">
-        <v>26.29</v>
-      </c>
-      <c r="J17">
-        <v>26.28</v>
-      </c>
-      <c r="K17">
-        <v>26.2</v>
-      </c>
-      <c r="L17">
-        <v>25.82</v>
-      </c>
-      <c r="M17">
-        <v>24.36</v>
-      </c>
-      <c r="N17">
-        <v>26.14</v>
-      </c>
-      <c r="O17">
-        <v>26.08</v>
-      </c>
-      <c r="P17">
-        <v>26.1</v>
-      </c>
-      <c r="Q17">
-        <v>26.09</v>
-      </c>
-      <c r="R17">
-        <v>26.19</v>
-      </c>
-      <c r="S17">
-        <v>26.17</v>
-      </c>
-      <c r="T17">
-        <v>26.49</v>
-      </c>
-      <c r="U17">
-        <v>26.33</v>
-      </c>
-      <c r="V17">
-        <v>26.37</v>
-      </c>
-      <c r="W17">
-        <v>26.43</v>
-      </c>
-      <c r="X17">
-        <v>26.21</v>
-      </c>
-      <c r="Y17">
-        <v>26.21</v>
-      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -3572,78 +3868,6 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
-        <v>36.01</v>
-      </c>
-      <c r="C19">
-        <v>35.9</v>
-      </c>
-      <c r="D19">
-        <v>36.08</v>
-      </c>
-      <c r="E19">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="F19">
-        <v>34.53</v>
-      </c>
-      <c r="G19">
-        <v>35.47</v>
-      </c>
-      <c r="H19">
-        <v>32.590000000000003</v>
-      </c>
-      <c r="I19">
-        <v>31.89</v>
-      </c>
-      <c r="J19">
-        <v>32.4</v>
-      </c>
-      <c r="K19">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="L19">
-        <v>28.02</v>
-      </c>
-      <c r="M19">
-        <v>28.55</v>
-      </c>
-      <c r="N19">
-        <v>34.81</v>
-      </c>
-      <c r="O19">
-        <v>34.97</v>
-      </c>
-      <c r="P19">
-        <v>34.83</v>
-      </c>
-      <c r="Q19">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="R19">
-        <v>34.409999999999997</v>
-      </c>
-      <c r="S19">
-        <v>35.32</v>
-      </c>
-      <c r="T19">
-        <v>35.619999999999997</v>
-      </c>
-      <c r="U19">
-        <v>33.44</v>
-      </c>
-      <c r="V19">
-        <v>33.99</v>
-      </c>
-      <c r="W19">
-        <v>33.64</v>
-      </c>
-      <c r="X19">
-        <v>32.78</v>
-      </c>
-      <c r="Y19">
-        <v>33.729999999999997</v>
-      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -3725,78 +3949,6 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21">
-        <v>30.87</v>
-      </c>
-      <c r="C21">
-        <v>30.77</v>
-      </c>
-      <c r="D21">
-        <v>30.95</v>
-      </c>
-      <c r="E21">
-        <v>31.15</v>
-      </c>
-      <c r="F21">
-        <v>29.65</v>
-      </c>
-      <c r="G21">
-        <v>30.48</v>
-      </c>
-      <c r="H21">
-        <v>28.2</v>
-      </c>
-      <c r="I21">
-        <v>27.61</v>
-      </c>
-      <c r="J21">
-        <v>27.98</v>
-      </c>
-      <c r="K21">
-        <v>28.06</v>
-      </c>
-      <c r="L21">
-        <v>24.28</v>
-      </c>
-      <c r="M21">
-        <v>24.21</v>
-      </c>
-      <c r="N21">
-        <v>29.67</v>
-      </c>
-      <c r="O21">
-        <v>29.82</v>
-      </c>
-      <c r="P21">
-        <v>29.9</v>
-      </c>
-      <c r="Q21">
-        <v>29.84</v>
-      </c>
-      <c r="R21">
-        <v>29.78</v>
-      </c>
-      <c r="S21">
-        <v>30.12</v>
-      </c>
-      <c r="T21">
-        <v>30.69</v>
-      </c>
-      <c r="U21">
-        <v>28.47</v>
-      </c>
-      <c r="V21">
-        <v>28.97</v>
-      </c>
-      <c r="W21">
-        <v>28.66</v>
-      </c>
-      <c r="X21">
-        <v>28.34</v>
-      </c>
-      <c r="Y21">
-        <v>28.61</v>
       </c>
     </row>
   </sheetData>
